--- a/data/变量衍生表.xlsx
+++ b/data/变量衍生表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
   <si>
     <t>表voice_train衍生变量</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,6 +137,106 @@
   </si>
   <si>
     <t>常用联系人个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CALL_RDD_HOWMANYBUSINESS</t>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常用业务个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CALL_RDD_AVGTIME</t>
+  </si>
+  <si>
+    <t>FLOAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均通话时长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CALL_RDD_DAYTIME</t>
+  </si>
+  <si>
+    <t>日间通话次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CALL_RDD_AFTERNOON</t>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午通话次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CALL_RDD_NIGHT</t>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜间通话次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CALL_RDD_BEFOREDAWN</t>
+  </si>
+  <si>
+    <t>凌晨通话次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CALL_RDD_MAXTIME</t>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大通话时长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CALL_RDD_MINTIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小通话时长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CALL_RDD_TIMEVAR</t>
+  </si>
+  <si>
+    <t>FLOAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通话时间方差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CALL_RDD_INOUTRATIO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接拨比例</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -203,10 +303,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -487,34 +587,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C14"/>
+  <dimension ref="A2:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.125" customWidth="1"/>
     <col min="2" max="2" width="14.75" customWidth="1"/>
     <col min="3" max="3" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -637,6 +737,116 @@
       </c>
       <c r="C14" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/data/变量衍生表.xlsx
+++ b/data/变量衍生表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="111">
   <si>
     <t>表voice_train衍生变量</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,9 +118,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CALL_RDD_BUSSINESS</t>
-  </si>
-  <si>
     <t>INT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -237,6 +234,205 @@
   </si>
   <si>
     <t>接拨比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CALL_RDD_TIME_IN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接电话总时长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CALL_RDD_TIME_OUT</t>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拨电话总时长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CALL_RDD_TIME_PERSON</t>
+  </si>
+  <si>
+    <t>CALL_RDD_TIME_BUSINESS</t>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接拨业务电话时长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接拨个人电话时长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CALL_RDD_TIME_PBRATIO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接拨业务/个人电话时长比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CALL_RDD_MEANFREQ</t>
+  </si>
+  <si>
+    <t>平均通话频率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CALL_RDD_FREQONEDAY</t>
+  </si>
+  <si>
+    <t>平均每日通话次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CALL_RDD_SHORTTIME</t>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短时通话次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CALL_RDD_LONGTIME</t>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长时通话次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CALL_RDD_LLONGTIME</t>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超长时通话次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CALL_RDD_LIANTONG</t>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与联通用户通话次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CALL_RDD_YIDONG</t>
+  </si>
+  <si>
+    <t>与移动用户通话次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CALL_RDD_DIANXIN</t>
+  </si>
+  <si>
+    <t>与电信用户通话次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CALL_RDD_KEFU</t>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与客服电话通话次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CALL_RDD_PERSON_IN</t>
+  </si>
+  <si>
+    <t>接手机电话总次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CALL_RDD_PERSON_OUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拨手机电话总次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CALL_RDD_PERSON_RATIO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接拨手机电话比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CALL_RDD_BUSINESS_IN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CALL_RDD_BUSINESS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接业务电话总次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CALL_RDD_BUSINESS_OUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拨业务电话总次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CALL_RDD_BUSINESS_RATIO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接拨业务电话比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CALL_RDD_PBRATIO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接拨手机/业务电话比例</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -587,17 +783,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C24"/>
+  <dimension ref="A2:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.125" customWidth="1"/>
     <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="3" max="3" width="25.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -708,145 +904,376 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="B24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" t="s">
         <v>36</v>
       </c>
-      <c r="C24" t="s">
-        <v>58</v>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/data/变量衍生表.xlsx
+++ b/data/变量衍生表.xlsx
@@ -1,15 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65F3676-44AC-4D08-BB4C-B3048751562B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="137">
   <si>
     <t>表voice_train衍生变量</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -433,13 +435,116 @@
   </si>
   <si>
     <t>接拨手机/业务电话比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表sms_train衍生变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMS_RDD_CNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信收发总次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMS_RDD_IN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMS_RDD_OUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信接收次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信发出次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMS_RDD_INOUTRATIO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMS_RDD_HOWMANYPERSON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMS_RDD_DAYTIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日间短信次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午短信次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜间短信次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凌晨短信次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMS_RDD_AFTERNOON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMS_RDD_NIGHT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMS_RDD_BEFOREDAWN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMS_RDD_LIANTONG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMS_RDD_YIDONG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMS_RDD_DIANXIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与联通用户短信次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与移动用户短信次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与电信用户短信次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收/发送比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMS_RDD_HOWMANYBUSINESS</t>
+  </si>
+  <si>
+    <t>常用业务个数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -497,12 +602,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -782,28 +889,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.125" customWidth="1"/>
+    <col min="1" max="1" width="28.08203125" customWidth="1"/>
     <col min="2" max="2" width="14.75" customWidth="1"/>
     <col min="3" max="3" width="25.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -814,7 +921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -825,7 +932,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -836,7 +943,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -847,7 +954,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -858,7 +965,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -869,7 +976,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -880,7 +987,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -891,7 +998,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -902,7 +1009,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>58</v>
       </c>
@@ -913,7 +1020,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>61</v>
       </c>
@@ -924,7 +1031,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -935,7 +1042,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>65</v>
       </c>
@@ -946,7 +1053,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -957,7 +1064,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>70</v>
       </c>
@@ -968,7 +1075,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -979,7 +1086,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>95</v>
       </c>
@@ -990,7 +1097,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>97</v>
       </c>
@@ -1001,7 +1108,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>99</v>
       </c>
@@ -1012,7 +1119,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>102</v>
       </c>
@@ -1023,7 +1130,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>101</v>
       </c>
@@ -1034,7 +1141,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>104</v>
       </c>
@@ -1045,7 +1152,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>107</v>
       </c>
@@ -1056,7 +1163,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -1067,7 +1174,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -1078,7 +1185,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -1089,7 +1196,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -1100,7 +1207,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -1111,7 +1218,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -1122,7 +1229,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -1133,7 +1240,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>45</v>
       </c>
@@ -1144,7 +1251,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -1155,7 +1262,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>50</v>
       </c>
@@ -1166,7 +1273,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>53</v>
       </c>
@@ -1177,7 +1284,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>72</v>
       </c>
@@ -1188,7 +1295,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>74</v>
       </c>
@@ -1199,7 +1306,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>76</v>
       </c>
@@ -1210,7 +1317,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>79</v>
       </c>
@@ -1221,7 +1328,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>82</v>
       </c>
@@ -1232,7 +1339,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>85</v>
       </c>
@@ -1243,7 +1350,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>88</v>
       </c>
@@ -1254,7 +1361,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>90</v>
       </c>
@@ -1265,7 +1372,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>92</v>
       </c>
@@ -1274,6 +1381,192 @@
       </c>
       <c r="C45" t="s">
         <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF9B62A-F950-43EF-A7D2-7ED7F1180E63}">
+  <dimension ref="A2:C16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.08203125" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="25.25" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/data/变量衍生表.xlsx
+++ b/data/变量衍生表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="114">
   <si>
     <t>表voice_train衍生变量</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -433,6 +433,17 @@
   </si>
   <si>
     <t>接拨手机/业务电话比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CALL_RDD_RECORD</t>
+  </si>
+  <si>
+    <t>CLASS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否有通话记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -497,12 +508,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -783,10 +795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C45"/>
+  <dimension ref="A2:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -815,464 +827,475 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
+      <c r="A4" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B20" t="s">
         <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>103</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B24" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="C24" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="C25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B26" t="s">
         <v>64</v>
       </c>
       <c r="C26" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C35" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C36" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B37" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C37" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B38" t="s">
         <v>64</v>
       </c>
       <c r="C38" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C39" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B40" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C40" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B41" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C41" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C42" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B43" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="C43" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B44" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C44" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>92</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>93</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" t="s">
         <v>94</v>
       </c>
     </row>

--- a/data/变量衍生表.xlsx
+++ b/data/变量衍生表.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65F3676-44AC-4D08-BB4C-B3048751562B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CFB8C1-768C-4545-BF2C-D7D2E835767C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="278">
   <si>
     <t>表voice_train衍生变量</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -538,6 +539,560 @@
   </si>
   <si>
     <t>常用业务个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天访问APP的平均次数</t>
+  </si>
+  <si>
+    <t>每天访问APP次数的方差</t>
+  </si>
+  <si>
+    <t>访问APP的时间</t>
+  </si>
+  <si>
+    <t>每天访问APP的平均时间</t>
+  </si>
+  <si>
+    <t>每天访问APP时间的方差</t>
+  </si>
+  <si>
+    <t>访问APP的总上行流量</t>
+  </si>
+  <si>
+    <t>每天访问APP的平均上行流量</t>
+  </si>
+  <si>
+    <t>每天访问APP的上行流量的方差</t>
+  </si>
+  <si>
+    <t>访问APP的下行流量</t>
+  </si>
+  <si>
+    <t>每天访问APP的平均下行流量</t>
+  </si>
+  <si>
+    <t>表wa_train衍生变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WA_WEB_TIMES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问网站的总次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WA_WEB_TIMESA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天访问网站的平均次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WA_WEB_TIMESV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天访问网站次数的方差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WA_WEB_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问网站的时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WA_WEB_TIMEA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天访问网站的平均时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WA_WEB_TIMEV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天访问网站时间的方差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WA_WEB_BU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问网站的总上行流量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WA_WEB_BUA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天访问网站的平均上行流量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WA_WEB_BUV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天访问网站的上行流量的方差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WA_WEB_BD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问网站的下行流量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WA_WEB_BDA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天访问网站的平均下行流量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WA_WEB_BDV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天访问网站的下行流量的方差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WA_WEB_RATIO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站的上行流量和下行流量的比值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WA_APP_TIMES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问APP的总次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WA_APP_TIMESA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WA_APP_TIMESV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WA_APP_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WA_APP_TIMEA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WA_APP_TIMEV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WA_APP_BU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WA_APP_BUA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WA_APP_BUV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WA_APP_BD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WA_APP_BDA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WA_APP_BDV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天访问APP的下行流量的方差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WA_APP_RATIO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP的上行流量和下行流量的比值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOTAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WA_TIMES_RATIO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问网站和APP次数的比值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WA_TIMES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上网的总次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WA_TIMESA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上网的平均次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WA_TIMESV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上网次数的方差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WA_TIME_RATIO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问网站和APP时间的比值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WA_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上网的总时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WA_TIMEA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上网的平均时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WA_TIMEV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上网时间的方差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WA_BU_RATIO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网页上行流量和APP上行流量的比值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WA_BU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上网的总上行流量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WA_BUA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上网的平均上行流量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WA_BUV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上网上行流量的方差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WA_BD_RATIO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网页下行流量和APP下行流量的比值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WA_BD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上网的总下行流量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WA_BDA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上网的平均下行流量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WA_BDV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上网下行流量的方差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WA_RATIO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站上行流量和下行流量的比值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TL_WEB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WA_TL_WEB_TIMESA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天访问联通相关网站的平均次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WA_TL_WEB_TIMESV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天访问联通相关网站次数的方差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WA_TL_WEB_TIMEA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天访问联通相关网站的平均时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WA_TL_WEB_TIMEV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天访问联通相关网站时间的方差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WA_TL_WEB_BUA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天访问联通相关网站的平均上行流量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WA_TL_WEB_BUV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天访问联通相关网站的上行流量的方差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WA_TL_WEB_BDA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天访问联通相关网站的平均下行流量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WA_TL_WEB_BDV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天访问联通相关网站的下行流量的方差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TL_APP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WA_TL_APP_TIMESA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天访问联通相关APP的平均次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WA_TL_APP_TIMESV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天访问联通相关APP次数的方差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WA_TL_APP_TIMEA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天访问联通相关APP的平均时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WA_TL_APP_TIMEV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天访问联通相关APP时间的方差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WA_TL_APP_BUA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天访问联通相关APP的平均上行流量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WA_TL_APP_BUV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天访问联通相关APP的上行流量的方差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WA_TL_APP_BDA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天访问联通相关APP的平均下行流量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WA_TL_APP_BDV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天访问联通相关APP的下行流量的方差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TL_TATOL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WA_TL_TIMESA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联通相关上网的平均次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WA_TL_TIMESV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联通相关上网次数的方差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WA_TL_TIMEA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联通相关上网的平均时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WA_TL_TIMEV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联通相关上网时间的方差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WA_TL_UA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联通相关上网的平均上行流量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WA_TL_UV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联通相关上网的上行流量的方差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WA_TL_DA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联通相关上网的平均下行流量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WA_TL_DV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联通相关上网的下行流量的方差</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -575,7 +1130,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -598,18 +1153,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -904,11 +1477,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1397,7 +1970,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF9B62A-F950-43EF-A7D2-7ED7F1180E63}">
   <dimension ref="A2:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -1405,15 +1978,15 @@
   <cols>
     <col min="1" max="1" width="28.08203125" customWidth="1"/>
     <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="3" max="3" width="25.25" style="4" customWidth="1"/>
+    <col min="3" max="3" width="25.25" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1422,7 +1995,7 @@
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1433,7 +2006,7 @@
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1444,7 +2017,7 @@
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1455,7 +2028,7 @@
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>117</v>
       </c>
     </row>
@@ -1466,7 +2039,7 @@
       <c r="B7" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>134</v>
       </c>
     </row>
@@ -1477,7 +2050,7 @@
       <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1488,7 +2061,7 @@
       <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>136</v>
       </c>
     </row>
@@ -1499,7 +2072,7 @@
       <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1510,7 +2083,7 @@
       <c r="B11" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1521,7 +2094,7 @@
       <c r="B12" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1532,7 +2105,7 @@
       <c r="B13" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1543,7 +2116,7 @@
       <c r="B14" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1554,7 +2127,7 @@
       <c r="B15" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>132</v>
       </c>
     </row>
@@ -1565,7 +2138,7 @@
       <c r="B16" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>133</v>
       </c>
     </row>
@@ -1577,4 +2150,869 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3460349C-0AB9-4813-8F27-FAAD9C6BA738}">
+  <dimension ref="A1:D69"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="10.25" customWidth="1"/>
+    <col min="4" max="4" width="29.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+      <c r="B4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+      <c r="B9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+      <c r="B10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+      <c r="B14" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+      <c r="B15" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B16" t="s">
+        <v>176</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="B17" t="s">
+        <v>178</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+      <c r="B18" t="s">
+        <v>179</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="5"/>
+      <c r="B19" t="s">
+        <v>180</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="5"/>
+      <c r="B20" t="s">
+        <v>181</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="5"/>
+      <c r="B21" t="s">
+        <v>182</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="5"/>
+      <c r="B22" t="s">
+        <v>183</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="5"/>
+      <c r="B23" t="s">
+        <v>184</v>
+      </c>
+      <c r="C23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="5"/>
+      <c r="B24" t="s">
+        <v>185</v>
+      </c>
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="5"/>
+      <c r="B25" t="s">
+        <v>186</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="5"/>
+      <c r="B26" t="s">
+        <v>187</v>
+      </c>
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="5"/>
+      <c r="B27" t="s">
+        <v>188</v>
+      </c>
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="5"/>
+      <c r="B28" t="s">
+        <v>190</v>
+      </c>
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B29" t="s">
+        <v>193</v>
+      </c>
+      <c r="C29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="5"/>
+      <c r="B30" t="s">
+        <v>195</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="5"/>
+      <c r="B31" t="s">
+        <v>197</v>
+      </c>
+      <c r="C31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="5"/>
+      <c r="B32" t="s">
+        <v>199</v>
+      </c>
+      <c r="C32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="5"/>
+      <c r="B33" t="s">
+        <v>201</v>
+      </c>
+      <c r="C33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="5"/>
+      <c r="B34" t="s">
+        <v>203</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="5"/>
+      <c r="B35" t="s">
+        <v>205</v>
+      </c>
+      <c r="C35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="5"/>
+      <c r="B36" t="s">
+        <v>207</v>
+      </c>
+      <c r="C36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="5"/>
+      <c r="B37" t="s">
+        <v>209</v>
+      </c>
+      <c r="C37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="5"/>
+      <c r="B38" t="s">
+        <v>211</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="5"/>
+      <c r="B39" t="s">
+        <v>213</v>
+      </c>
+      <c r="C39" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="5"/>
+      <c r="B40" t="s">
+        <v>215</v>
+      </c>
+      <c r="C40" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="5"/>
+      <c r="B41" t="s">
+        <v>217</v>
+      </c>
+      <c r="C41" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="5"/>
+      <c r="B42" t="s">
+        <v>219</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="5"/>
+      <c r="B43" t="s">
+        <v>221</v>
+      </c>
+      <c r="C43" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="5"/>
+      <c r="B44" t="s">
+        <v>223</v>
+      </c>
+      <c r="C44" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="5"/>
+      <c r="B45" t="s">
+        <v>225</v>
+      </c>
+      <c r="C45" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B46" t="s">
+        <v>228</v>
+      </c>
+      <c r="C46" t="s">
+        <v>35</v>
+      </c>
+      <c r="D46" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="5"/>
+      <c r="B47" t="s">
+        <v>230</v>
+      </c>
+      <c r="C47" t="s">
+        <v>35</v>
+      </c>
+      <c r="D47" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="5"/>
+      <c r="B48" t="s">
+        <v>232</v>
+      </c>
+      <c r="C48" t="s">
+        <v>35</v>
+      </c>
+      <c r="D48" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="5"/>
+      <c r="B49" t="s">
+        <v>234</v>
+      </c>
+      <c r="C49" t="s">
+        <v>35</v>
+      </c>
+      <c r="D49" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="5"/>
+      <c r="B50" t="s">
+        <v>236</v>
+      </c>
+      <c r="C50" t="s">
+        <v>35</v>
+      </c>
+      <c r="D50" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="5"/>
+      <c r="B51" t="s">
+        <v>238</v>
+      </c>
+      <c r="C51" t="s">
+        <v>35</v>
+      </c>
+      <c r="D51" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="5"/>
+      <c r="B52" t="s">
+        <v>240</v>
+      </c>
+      <c r="C52" t="s">
+        <v>35</v>
+      </c>
+      <c r="D52" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="5"/>
+      <c r="B53" t="s">
+        <v>242</v>
+      </c>
+      <c r="C53" t="s">
+        <v>35</v>
+      </c>
+      <c r="D53" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B54" t="s">
+        <v>245</v>
+      </c>
+      <c r="C54" t="s">
+        <v>35</v>
+      </c>
+      <c r="D54" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="5"/>
+      <c r="B55" t="s">
+        <v>247</v>
+      </c>
+      <c r="C55" t="s">
+        <v>35</v>
+      </c>
+      <c r="D55" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="5"/>
+      <c r="B56" t="s">
+        <v>249</v>
+      </c>
+      <c r="C56" t="s">
+        <v>35</v>
+      </c>
+      <c r="D56" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="5"/>
+      <c r="B57" t="s">
+        <v>251</v>
+      </c>
+      <c r="C57" t="s">
+        <v>35</v>
+      </c>
+      <c r="D57" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="5"/>
+      <c r="B58" t="s">
+        <v>253</v>
+      </c>
+      <c r="C58" t="s">
+        <v>35</v>
+      </c>
+      <c r="D58" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="5"/>
+      <c r="B59" t="s">
+        <v>255</v>
+      </c>
+      <c r="C59" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="5"/>
+      <c r="B60" t="s">
+        <v>257</v>
+      </c>
+      <c r="C60" t="s">
+        <v>35</v>
+      </c>
+      <c r="D60" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="5"/>
+      <c r="B61" t="s">
+        <v>259</v>
+      </c>
+      <c r="C61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D61" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B62" t="s">
+        <v>262</v>
+      </c>
+      <c r="C62" t="s">
+        <v>35</v>
+      </c>
+      <c r="D62" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="5"/>
+      <c r="B63" t="s">
+        <v>264</v>
+      </c>
+      <c r="C63" t="s">
+        <v>35</v>
+      </c>
+      <c r="D63" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="5"/>
+      <c r="B64" t="s">
+        <v>266</v>
+      </c>
+      <c r="C64" t="s">
+        <v>35</v>
+      </c>
+      <c r="D64" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="5"/>
+      <c r="B65" t="s">
+        <v>268</v>
+      </c>
+      <c r="C65" t="s">
+        <v>35</v>
+      </c>
+      <c r="D65" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="5"/>
+      <c r="B66" t="s">
+        <v>270</v>
+      </c>
+      <c r="C66" t="s">
+        <v>35</v>
+      </c>
+      <c r="D66" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="5"/>
+      <c r="B67" t="s">
+        <v>272</v>
+      </c>
+      <c r="C67" t="s">
+        <v>35</v>
+      </c>
+      <c r="D67" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="5"/>
+      <c r="B68" t="s">
+        <v>274</v>
+      </c>
+      <c r="C68" t="s">
+        <v>35</v>
+      </c>
+      <c r="D68" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="5"/>
+      <c r="B69" t="s">
+        <v>276</v>
+      </c>
+      <c r="C69" t="s">
+        <v>35</v>
+      </c>
+      <c r="D69" t="s">
+        <v>277</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A62:A69"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:A15"/>
+    <mergeCell ref="A16:A28"/>
+    <mergeCell ref="A29:A45"/>
+    <mergeCell ref="A46:A53"/>
+    <mergeCell ref="A54:A61"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>